--- a/Fase_1.0/Planilla_de_Requerimientos.xlsx
+++ b/Fase_1.0/Planilla_de_Requerimientos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="132">
   <si>
     <t>[R-N°]</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>El administrador puede agregar productos nuevos a la lista de productos disponibles para su previa muestra en la pagina.</t>
+    <t>El administrador puede agregar productos nuevos a la lista de productos disponibles para su previa muestra en la página.</t>
   </si>
   <si>
     <t>Solicitado</t>
@@ -67,7 +67,7 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>El cliente resibira presupuestos que se adaptaran a las necesidades requeridas</t>
+    <t>El cliente recibirá presupuestos que se adaptaran a las necesidades requeridas</t>
   </si>
   <si>
     <t>R.3</t>
@@ -79,7 +79,7 @@
     <t>Cliente/Administrador</t>
   </si>
   <si>
-    <t>Tanto el cliente como el administrador podran tener una cuenta para ingresar al sitio.</t>
+    <t>Tanto el cliente como el administrador podrán tener una cuenta para ingresar al sitio.</t>
   </si>
   <si>
     <t>R.4</t>
@@ -88,7 +88,7 @@
     <t>Logeo de cuentas.</t>
   </si>
   <si>
-    <t>Los usuarios tendran que ingresar a al sitio con sus credenciales pertinentes.</t>
+    <t>Los usuarios tendrán que ingresar a al sitio con sus credenciales pertinentes.</t>
   </si>
   <si>
     <t>R.5</t>
@@ -97,16 +97,16 @@
     <t>Guardado de presupuesto.</t>
   </si>
   <si>
-    <t>El cliente y administrador podran guardar los presupuestos creados previamente con sus detalles de producto y precio.</t>
+    <t>El cliente y administrador podrán guardar los presupuestos creados previamente con sus detalles de producto y precio.</t>
   </si>
   <si>
     <t>R.6</t>
   </si>
   <si>
-    <t>Verificar stock de compontes.</t>
-  </si>
-  <si>
-    <t>Tanto el cliente y el administrador podran ver los productos que se encuentren en stock al igual que su cantidad y disponibilidad</t>
+    <t>Verificar stock de componentes.</t>
+  </si>
+  <si>
+    <t>Tanto el cliente y el administrador podrá ver los productos que se encuentren en stock al igual que su cantidad y disponibilidad</t>
   </si>
   <si>
     <t>R.7</t>
@@ -115,7 +115,7 @@
     <t>Validar credenciales de usuario.</t>
   </si>
   <si>
-    <t>Se verificara que las credenciales del usuario segun contraseña, correo y nombre.</t>
+    <t>Se verificará que las credenciales del usuario según contraseña, correo y nombre.</t>
   </si>
   <si>
     <t>R.8</t>
@@ -127,16 +127,16 @@
     <t>No Funcional</t>
   </si>
   <si>
-    <t>Se verificaran los datos de los usuarios y productos para comprobar que estos no se repitan dos o mas veces.</t>
+    <t>Se verificarán los datos de los usuarios y productos para comprobar que estos no se repitan dos o más veces.</t>
   </si>
   <si>
     <t>R.9</t>
   </si>
   <si>
-    <t>Filtrado por categoria.</t>
-  </si>
-  <si>
-    <t>Se debe poder filtrar los productos segun categoria y atributos del mismo.</t>
+    <t>Filtrado por categoría.</t>
+  </si>
+  <si>
+    <t>Se debe poder filtrar los productos según categoría y atributos del mismo.</t>
   </si>
   <si>
     <t>R.10</t>
@@ -145,7 +145,7 @@
     <t>Buscador de productos.</t>
   </si>
   <si>
-    <t>El cliente podra buscar un producto y opción en especifico si es necesario.</t>
+    <t>El cliente podrá buscar un producto y opción en especifico si es necesario.</t>
   </si>
   <si>
     <t>R.11</t>
@@ -154,7 +154,7 @@
     <t>Productos destacados.</t>
   </si>
   <si>
-    <t>El sitio mostrara una lista de productos destacados con su imagen y nombre.</t>
+    <t>El sitio mostrará una lista de productos destacados con su imagen y nombre.</t>
   </si>
   <si>
     <t>R.12</t>
@@ -163,7 +163,7 @@
     <t>Lista de productos.</t>
   </si>
   <si>
-    <t>El sitio mostrara una lista con todos los productos disponibles en el momento, y estos contaran con su respectiva fotografia y nombre.</t>
+    <t>El sitio mostrará una lista con todos los productos disponibles en el momento, y estos contarán con su respectiva fotografía y nombre.</t>
   </si>
   <si>
     <t>R.13</t>
@@ -172,7 +172,7 @@
     <t>Carrito de compra.</t>
   </si>
   <si>
-    <t>La pagina mostrara el carrito de compra con todos los articulos que contega actualmente.</t>
+    <t>La página mostrará el carrito de compra con todos los artículos que contengan actualmente.</t>
   </si>
   <si>
     <t>R.14</t>
@@ -181,28 +181,28 @@
     <t>Formulario de compra.</t>
   </si>
   <si>
-    <t>El usuario tendran que rellenar un formulario de compra para relizar pedidos con los datos del usuario.</t>
+    <t>El usuario tendrán que rellenar un formulario de compra para realizar pedidos con los datos del usuario.</t>
   </si>
   <si>
     <t>R.15</t>
   </si>
   <si>
-    <t>Interfaz comoda.</t>
+    <t>Interfaz cómoda.</t>
   </si>
   <si>
     <t>No funcional</t>
   </si>
   <si>
-    <t>La interfaz tiene que ser de facil entendimiento para el publico.</t>
+    <t>La interfaz tiene que ser de fácil entendimiento para el público.</t>
   </si>
   <si>
     <t>R.16</t>
   </si>
   <si>
-    <t>Facil accesibilidad.</t>
-  </si>
-  <si>
-    <t>El usuario tiene que ser capaz de utilizar el sitio de manera facil y sencilla.</t>
+    <t>Fácil accesibilidad.</t>
+  </si>
+  <si>
+    <t>El usuario tiene que ser capaz de utilizar el sitio de manera fácil y sencilla.</t>
   </si>
   <si>
     <t>R.17</t>
@@ -220,7 +220,7 @@
     <t>Tiempo de respuesta.</t>
   </si>
   <si>
-    <t>El sitio debe responder de manera rapida eficiente entre pagina y pagina (Entre 3 a 5 segundos)</t>
+    <t>El sitio debe responder de manera rápida eficiente entre pagina y pagina (Entre 3 a 5 segundos)</t>
   </si>
   <si>
     <t>R.19</t>
@@ -229,7 +229,7 @@
     <t>Estabilidad.</t>
   </si>
   <si>
-    <t>El sitio tendra que ser estable sin colapsar durante su uso prolongado. Al igual de soportar diversidad de peticiones.</t>
+    <t>El sitio tendrá que ser estable sin colapsar durante su uso prolongado. Al igual de soportar diversidad de peticiones.</t>
   </si>
   <si>
     <t>R.20</t>
@@ -238,7 +238,7 @@
     <t>Cifrado HTTPS</t>
   </si>
   <si>
-    <t>El sitio contara con un cifrado de trafico para la seguridad.</t>
+    <t>El sitio contará con un cifrado de tráfico para la seguridad.</t>
   </si>
   <si>
     <t>R.21</t>
@@ -247,7 +247,7 @@
     <t>Filtrado de roles</t>
   </si>
   <si>
-    <t>El sistema se comportara de manera especificas segun el rol de usuario que ingrese</t>
+    <t>El sistema se comportará de manera específicas según el rol de usuario que ingrese</t>
   </si>
   <si>
     <t>R.22</t>
@@ -256,7 +256,7 @@
     <t>Contenido legible.</t>
   </si>
   <si>
-    <t>Todo contenido debe ser legible y de facil compresión.</t>
+    <t>Todo contenido debe ser legible y de fácil compresión.</t>
   </si>
   <si>
     <t>R.23</t>
@@ -265,7 +265,7 @@
     <t>Navegación intuitiva.</t>
   </si>
   <si>
-    <t>Las paginas del sitio tienen que ser intuitivas y consistentes entre si.</t>
+    <t>Las páginas del sitio tienen que ser intuitivas y consistentes entre sí.</t>
   </si>
   <si>
     <t>R.24</t>
@@ -274,16 +274,16 @@
     <t>Compatibilidad con exploradores</t>
   </si>
   <si>
-    <t>El sitio debe ser compatible con la mayoria de exploradores disponibles.</t>
+    <t>El sitio debe ser compatible con la mayoría de exploradores disponibles.</t>
   </si>
   <si>
     <t>R.25</t>
   </si>
   <si>
-    <t>Metodos de pago</t>
-  </si>
-  <si>
-    <t>El sitio debe aceptar diversos metodos de pago, tales como debito, credito, Paypal entre otros...</t>
+    <t>Métodos de pago</t>
+  </si>
+  <si>
+    <t>El sitio debe aceptar diversos Métodos de pago, tales como débito, crédito, Paypal entre otros...</t>
   </si>
   <si>
     <t>R.26</t>
@@ -295,13 +295,13 @@
     <t>Cliente/administrador</t>
   </si>
   <si>
-    <t>Los usuarios deben poder ver su historial de compras y demas.</t>
+    <t>Los usuarios deben poder ver su historial de compras y demás.</t>
   </si>
   <si>
     <t>R.27</t>
   </si>
   <si>
-    <t>Edicion de perfiles</t>
+    <t>Edición de perfiles</t>
   </si>
   <si>
     <t>Todos los usuario deben poder modificar su información personal.</t>
@@ -310,22 +310,40 @@
     <t>R.28</t>
   </si>
   <si>
-    <t>Formualrio de cotización</t>
+    <t>Formulario de cotización</t>
   </si>
   <si>
     <t>Cliente.</t>
   </si>
   <si>
-    <t>El usuario podra crear una cotización dada por el sitio, el cual le dara una estructura segun las necesidades solicitadas.</t>
+    <t>El usuario podrá crear una cotización dada por el sitio, el cual le dará una estructura según las necesidades solicitadas.</t>
   </si>
   <si>
     <t>R.29</t>
   </si>
   <si>
+    <t>Escabilidad</t>
+  </si>
+  <si>
+    <t>El sistema debe soportar aumentos repentinos en el flujo de navegación durante eventos o similares.</t>
+  </si>
+  <si>
     <t>R.30</t>
   </si>
   <si>
+    <t>Mantenibilidad</t>
+  </si>
+  <si>
+    <t>El sistema debe de soportar largos periodos de uso seguidos sin colapsar.</t>
+  </si>
+  <si>
     <t>R.31</t>
+  </si>
+  <si>
+    <t>Compatibilidad entre navegadores.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser compatible con la mayoria de exploradores disponibles.</t>
   </si>
   <si>
     <t>R.32</t>
@@ -1319,39 +1337,57 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" ht="24.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" ht="24.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" ht="24.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1361,7 +1397,7 @@
     </row>
     <row r="34" ht="24.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1371,7 +1407,7 @@
     </row>
     <row r="35" ht="24.75" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1381,7 +1417,7 @@
     </row>
     <row r="36" ht="24.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1391,7 +1427,7 @@
     </row>
     <row r="37" ht="24.75" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1401,7 +1437,7 @@
     </row>
     <row r="38" ht="24.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1411,7 +1447,7 @@
     </row>
     <row r="39" ht="24.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1421,7 +1457,7 @@
     </row>
     <row r="40" ht="24.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2428,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -2442,19 +2478,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -2462,19 +2498,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -2482,16 +2518,16 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
@@ -2502,14 +2538,14 @@
         <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>11</v>
@@ -2520,14 +2556,14 @@
         <v>23</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>11</v>
